--- a/Passenger_info.xlsx
+++ b/Passenger_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,15 +467,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12124</v>
+        <v>11042</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yash</t>
+          <t>Parth Patil</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -484,24 +484,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>yashswan6@gmail.com</t>
+          <t>parth2001@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>32136983</v>
+        <v>86980522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19400</v>
+        <v>22222</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hardik</t>
+          <t>Manav Jain</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -510,20 +510,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>hardikshah@gmail.com</t>
+          <t>manavjain@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>99683706</v>
+        <v>77815142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11042</v>
+        <v>12432</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parth Patil</t>
+          <t>Ankita Shah</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -531,29 +531,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>parth2001@gmail.com</t>
+          <t>ankita210@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>86980522</v>
+        <v>33264185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22222</v>
+        <v>12780</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Manav Jain</t>
+          <t>Piyush Gandhi</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -562,37 +562,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>manavjain@gmail.com</t>
+          <t>yashswan6@gmail.com</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>77815142</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>12432</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ankita Shah</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ankita210@gmail.com</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>33264185</v>
+        <v>22047674</v>
       </c>
     </row>
   </sheetData>
